--- a/src/test/resources/EurotechTest.xlsx
+++ b/src/test/resources/EurotechTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erhanilgar/IdeaProjects/seleniumProject/src/main/Batch9TestNGSelenium/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B550A8-69BD-B14A-89FC-0F5EFFC4D5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC1639D-D42C-324D-93ED-9E1E46173615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-960" windowWidth="38400" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
   <si>
     <t>Username</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>Erkan</t>
+  </si>
+  <si>
+    <t>merkanb1@gmail.com</t>
+  </si>
+  <si>
+    <t>Erkan242</t>
   </si>
 </sst>
 </file>
@@ -571,7 +577,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,10 +693,10 @@
     </row>
     <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="5">
-        <v>242872</v>
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
